--- a/biology/Botanique/Douce_Moën/Douce_Moën.xlsx
+++ b/biology/Botanique/Douce_Moën/Douce_Moën.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Douce_Mo%C3%ABn</t>
+          <t>Douce_Moën</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dous Moën est le nom d'un cultivar de pommier, destiné à la production de cidre.
 Synonyme(s) : Dous Moën Rouge
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Douce_Mo%C3%ABn</t>
+          <t>Douce_Moën</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété est originaire du Sud Finistère et très répandue en Bretagne
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Douce_Mo%C3%ABn</t>
+          <t>Douce_Moën</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Douce_Mo%C3%ABn</t>
+          <t>Douce_Moën</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre:
 Arbre vigoureux au port étalé, à la rusticité moyenne. La mise à fruit est rapide. La production est bonne mais très alternante.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Douce_Mo%C3%ABn</t>
+          <t>Douce_Moën</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Résistances et susceptibilités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sensible à l’oïdium selon les régions
 </t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Douce_Mo%C3%ABn</t>
+          <t>Douce_Moën</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dous Moën est une bonne variété pollinisatrice</t>
         </is>
